--- a/Making Methods/ЛР1-ПрИ181-ГорбачА.xlsx
+++ b/Making Methods/ЛР1-ПрИ181-ГорбачА.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Рабочий стол\REP\Making Methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D421401-5C39-45A6-B8AB-3A4C77CF7F8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A5A774-C0D5-48F0-B8C2-EE31B825CF81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="570" windowWidth="38640" windowHeight="21150" activeTab="1" xr2:uid="{6181CDDC-5762-4619-AF9C-886A58506F52}"/>
+    <workbookView xWindow="-120" yWindow="570" windowWidth="38640" windowHeight="21150" xr2:uid="{6181CDDC-5762-4619-AF9C-886A58506F52}"/>
   </bookViews>
   <sheets>
     <sheet name="2 8f" sheetId="1" r:id="rId1"/>
     <sheet name="3 5" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'2 8f'!$B$17</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'3 5'!$B$14:$D$14</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'2 8f'!$C$17</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'3 5'!$B$22:$D$22</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
@@ -29,12 +29,12 @@
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'2 8f'!$B$13</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'3 5'!$B$8</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'2 8f'!$B$13</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'3 5'!$B$14</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'3 5'!$C$14</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'3 5'!$D$14</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'2 8f'!$C$19</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'3 5'!$B$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'2 8f'!$C$19</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'3 5'!$B$22</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'3 5'!$C$22</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'3 5'!$D$22</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -47,12 +47,12 @@
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'2 8f'!$B$13</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'3 5'!$A$11</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'2 8f'!$B$19</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'3 5'!$A$19</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
@@ -63,12 +63,12 @@
     <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'2 8f'!$C$9</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'2 8f'!$D$19</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'2 8f'!$C$9</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'3 5'!$E$3</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'3 5'!$E$4</definedName>
-    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'3 5'!$E$5</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'2 8f'!$D$19</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'3 5'!$E$11</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'3 5'!$E$12</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'3 5'!$E$13</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
@@ -83,9 +83,9 @@
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">180000</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Ежегодные издержки, в год</t>
   </si>
@@ -196,6 +196,25 @@
   </si>
   <si>
     <t>Глава 2, задание 8f</t>
+  </si>
+  <si>
+    <t>Разность между видами оплаты</t>
+  </si>
+  <si>
+    <t>Для решения задачи использовался метод "Поиск решения" со следующими параметрами:
+Целевой ячейкой служит "Разность между видами оплаты" с присваиванием значения 0;
+Изменяя ячейки переменных "Оплата за уладку";
+Ограничений нет;
+Метод решения: Поиск решения нелинейных задач методом ОПГ;
+Ответ: "Оплата за уладку" = 16,80$ в час.</t>
+  </si>
+  <si>
+    <t>Для решения задачи использовался метод "Поиск решения" со следующими параметрами:
+Целевой ячейкой служит "Годовой доход", оптимизируем до максимального значения;
+Изменяя ячейки переменных в строке "Необходимо купить акций": "Gofer Crude", "Can Oil", "Sloth Petroleum";
+В соответствии с ограничениями: "Оставшийся бюджет " &gt;= 1, "Необходимо купить акций" каждого типа &lt;= "Максимальное количество акций" каждого типа;
+Метод решения: Поиск решения линейных задач симплекс-методом;
+Ответ:  "Необходимо купить акций": "Gofer Crude" = 750, "Can Oil" = 1000, "Sloth Petroleum" = 1500.</t>
   </si>
 </sst>
 </file>
@@ -317,7 +336,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -336,6 +355,10 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Денежный" xfId="5" builtinId="4"/>
@@ -356,6 +379,148 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7328</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>36635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14655</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>182892</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F5FC155-70CD-4EA3-91B9-ADE3D67A04BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1208943" y="36635"/>
+          <a:ext cx="6440366" cy="908257"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>175847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>154254</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F51A2FB-0A30-4DD1-B342-6E618E6AE106}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1201616" y="937847"/>
+          <a:ext cx="6440365" cy="740407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1289050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>8040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07703211-6825-45DF-9E82-3FAC9A2A8D47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1689100" y="1"/>
+          <a:ext cx="4413250" cy="1722539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -655,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683643CC-0962-4E06-B818-99FA23F0BE81}">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,140 +868,150 @@
       <c r="V1" s="15"/>
       <c r="W1" s="15"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="5"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B11" s="11">
         <v>48000</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C11" s="11">
         <v>32</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D11" s="10">
         <v>18</v>
       </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C5" s="4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C13" s="4">
         <v>15000</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D13" s="12">
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <f>C13*C17/A11</f>
+        <v>35999.999999857144</v>
+      </c>
+      <c r="D15" s="1">
+        <f>D13*D11</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
-        <f>C3*C5</f>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6">
+        <v>16.799999999933334</v>
+      </c>
+      <c r="D17" s="1">
+        <f>C11*C13</f>
         <v>480000</v>
       </c>
-      <c r="D7" s="1">
-        <f>D5*D3</f>
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C9" s="7">
-        <f>C7-B3-D7*A3</f>
+    <row r="19" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="9">
+        <f>D19-C19</f>
+        <v>-9.9997851066291332E-7</v>
+      </c>
+      <c r="C19">
+        <f>D17-B11-C13*C17</f>
+        <v>180000.00000099998</v>
+      </c>
+      <c r="D19">
+        <f>D17-B11-D15*A11</f>
         <v>180000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <f>C5*B17/A3</f>
-        <v>35999.999999999993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9">
-        <f>C7-B3-C5*B17</f>
-        <v>180000.00000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
-        <v>16.799999999999997</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
-      </c>
+    <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:4" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A21:D21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5178570D-E0D1-47EC-BCD1-D345B35B59E7}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,147 +1029,160 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B11" s="10">
         <v>60</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C11" s="10">
         <v>7</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D11" s="10">
         <v>60000</v>
       </c>
-      <c r="E3" s="2">
-        <f>D3/B3</f>
+      <c r="E11" s="2">
+        <f>D11/B11</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B12" s="10">
         <v>25</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C12" s="10">
         <v>3</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D12" s="10">
         <v>25000</v>
       </c>
-      <c r="E4" s="2">
-        <f>D4/B4</f>
+      <c r="E12" s="2">
+        <f>D12/B12</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B13" s="10">
         <v>20</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C13" s="10">
         <v>3</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D13" s="10">
         <v>30000</v>
       </c>
-      <c r="E5" s="2">
-        <f>D5/B5</f>
+      <c r="E13" s="2">
+        <f>D13/B13</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
         <v>100000</v>
       </c>
-      <c r="B8" s="14">
-        <f>A8-B3*B14-B4*C14-D14*B5</f>
+      <c r="B16" s="14">
+        <f>A16-B11*B22-B12*C22-D22*B13</f>
         <v>0</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="7" t="s">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <f>C3*B14+C4*C14+C5*D14</f>
+    <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <f>C11*B22+C12*C22+C13*D22</f>
         <v>12750</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="20" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C21" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B22" s="3">
         <v>750</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C22" s="3">
         <v>1000</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D22" s="3">
         <v>1500</v>
       </c>
     </row>
+    <row r="24" spans="1:5" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A24:E24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>